--- a/Assets/Book.xlsx
+++ b/Assets/Book.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20415" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20415" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -404,263 +403,13 @@
   </si>
   <si>
     <t>鞋架</t>
-  </si>
-  <si>
-    <t>FirstId</t>
-  </si>
-  <si>
-    <t>SecondId</t>
-  </si>
-  <si>
-    <t>ThirdId</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>airco_new</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>风格</t>
-  </si>
-  <si>
-    <t>色系</t>
-  </si>
-  <si>
-    <t>材质</t>
-  </si>
-  <si>
-    <t>形状</t>
-  </si>
-  <si>
-    <t>blinders_new</t>
-  </si>
-  <si>
-    <t>海帆帘</t>
-  </si>
-  <si>
-    <t>blinders_open_new</t>
-  </si>
-  <si>
-    <t>折叠帘</t>
-  </si>
-  <si>
-    <t>book001 1</t>
-  </si>
-  <si>
-    <t>书1</t>
-  </si>
-  <si>
-    <t>book001</t>
-  </si>
-  <si>
-    <t>书2</t>
-  </si>
-  <si>
-    <t>chaji_new</t>
-  </si>
-  <si>
-    <t>茶几</t>
-  </si>
-  <si>
-    <t>chanzuo_new</t>
-  </si>
-  <si>
-    <t>餐桌</t>
-  </si>
-  <si>
-    <t>couch001_corner_new</t>
-  </si>
-  <si>
-    <t>贵妃椅</t>
-  </si>
-  <si>
-    <t>couch002_new</t>
-  </si>
-  <si>
-    <t>双位沙发</t>
-  </si>
-  <si>
-    <t>dan_sf_new</t>
-  </si>
-  <si>
-    <t>单位沙发</t>
-  </si>
-  <si>
-    <t>dianshigui_new</t>
-  </si>
-  <si>
-    <t>dimmer_new</t>
-  </si>
-  <si>
-    <t>开关</t>
-  </si>
-  <si>
-    <t>door001_new</t>
-  </si>
-  <si>
-    <t>门</t>
-  </si>
-  <si>
-    <t>guizi_new</t>
-  </si>
-  <si>
-    <t>柜子</t>
-  </si>
-  <si>
-    <t>light_ceiling_001_chrome</t>
-  </si>
-  <si>
-    <t>灯1</t>
-  </si>
-  <si>
-    <t>light_ceiling_001_chrome_new</t>
-  </si>
-  <si>
-    <t>吊灯1</t>
-  </si>
-  <si>
-    <t>light_ceiling_003_new</t>
-  </si>
-  <si>
-    <t>吊灯2</t>
-  </si>
-  <si>
-    <t>light_floor_001_new</t>
-  </si>
-  <si>
-    <t>立灯1</t>
-  </si>
-  <si>
-    <t>light_floor_002_new</t>
-  </si>
-  <si>
-    <t>立灯2</t>
-  </si>
-  <si>
-    <t>light_wall_new</t>
-  </si>
-  <si>
-    <t>墙灯</t>
-  </si>
-  <si>
-    <t>painting001a_new</t>
-  </si>
-  <si>
-    <t>壁画1</t>
-  </si>
-  <si>
-    <t>painting001b_new</t>
-  </si>
-  <si>
-    <t>壁画2</t>
-  </si>
-  <si>
-    <t>pillow001_new</t>
-  </si>
-  <si>
-    <t>枕头1</t>
-  </si>
-  <si>
-    <t>pillow002_new</t>
-  </si>
-  <si>
-    <t>枕头2</t>
-  </si>
-  <si>
-    <t>pillow003_new</t>
-  </si>
-  <si>
-    <t>枕头3</t>
-  </si>
-  <si>
-    <t>planter001_new</t>
-  </si>
-  <si>
-    <t>花槽1</t>
-  </si>
-  <si>
-    <t>planter002_new</t>
-  </si>
-  <si>
-    <t>花槽2</t>
-  </si>
-  <si>
-    <t>sf_new</t>
-  </si>
-  <si>
-    <t>新沙发</t>
-  </si>
-  <si>
-    <t>socket_power_new</t>
-  </si>
-  <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>table002_new</t>
-  </si>
-  <si>
-    <t>吧台桌</t>
-  </si>
-  <si>
-    <t>table_bar_new</t>
-  </si>
-  <si>
-    <t>television001_new</t>
-  </si>
-  <si>
-    <t>电视机</t>
-  </si>
-  <si>
-    <t>vase001_new</t>
-  </si>
-  <si>
-    <t>花瓶1</t>
-  </si>
-  <si>
-    <t>vase003_new</t>
-  </si>
-  <si>
-    <t>花瓶3</t>
-  </si>
-  <si>
-    <t>xiaoguizi_new</t>
-  </si>
-  <si>
-    <t>小柜子</t>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,14 +996,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1310,11 +1056,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1388,6 +1139,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1422,6 +1174,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1597,16 +1350,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1640,7 +1393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1657,7 +1410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1674,7 +1427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1691,7 +1444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1708,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1725,7 +1478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1742,7 +1495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1759,7 +1512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1776,7 +1529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1793,7 +1546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1810,7 +1563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1827,58 +1580,58 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="5:5">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="5:5">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="5:5">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="5:5">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="5:5">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="5:5">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E43" s="1"/>
     </row>
   </sheetData>
@@ -1888,16 +1641,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1925,7 +1678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1939,7 +1692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1953,7 +1706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1967,7 +1720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1981,7 +1734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1995,7 +1748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2009,7 +1762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2023,7 +1776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2037,7 +1790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2051,7 +1804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2065,7 +1818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2079,7 +1832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2093,7 +1846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2107,7 +1860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2121,7 +1874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2135,7 +1888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2149,7 +1902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2163,7 +1916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2177,7 +1930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2191,7 +1944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2205,7 +1958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2219,7 +1972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2233,7 +1986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2247,7 +2000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2261,7 +2014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2275,7 +2028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2289,7 +2042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2303,7 +2056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2317,7 +2070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2331,7 +2084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2345,7 +2098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2359,7 +2112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2373,7 +2126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2387,7 +2140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2401,7 +2154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2415,7 +2168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2429,7 +2182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2443,7 +2196,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2457,7 +2210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2471,7 +2224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2485,7 +2238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2499,7 +2252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2520,14 +2273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2541,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2555,7 +2308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2569,7 +2322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2583,7 +2336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2597,7 +2350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2611,7 +2364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2625,7 +2378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2639,7 +2392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2653,7 +2406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2667,7 +2420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2681,7 +2434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2695,7 +2448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2709,7 +2462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2723,7 +2476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2737,7 +2490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2751,7 +2504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2765,7 +2518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2779,7 +2532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2793,7 +2546,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2807,7 +2560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2821,7 +2574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2835,7 +2588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2849,7 +2602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2863,7 +2616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2877,7 +2630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2891,7 +2644,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2905,7 +2658,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2919,7 +2672,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2933,7 +2686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2947,7 +2700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2961,7 +2714,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2975,7 +2728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2989,7 +2742,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3003,7 +2756,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3017,7 +2770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3031,7 +2784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3045,7 +2798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3059,7 +2812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3073,7 +2826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3087,7 +2840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3101,7 +2854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3115,7 +2868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3129,7 +2882,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3143,7 +2896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3157,7 +2910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3171,7 +2924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3185,7 +2938,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3199,7 +2952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3213,7 +2966,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3227,7 +2980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3241,7 +2994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3255,7 +3008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3269,7 +3022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3283,7 +3036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3297,7 +3050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3311,7 +3064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3325,7 +3078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3339,7 +3092,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3353,7 +3106,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3367,7 +3120,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3381,7 +3134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3395,7 +3148,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3409,7 +3162,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3421,1393 +3174,6 @@
       </c>
       <c r="D64" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4">
-        <v>2</v>
-      </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="4">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
